--- a/exportorv2/example/Vertical.xlsx
+++ b/exportorv2/example/Vertical.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Develop\opensource\src\github.com\davyxu\tabtoy\exportorv2\sample\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Develop\wukong\server\src\github.com\davyxu\tabtoy\exportorv2\example\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="45">
   <si>
     <t>ObjectType</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -184,6 +184,18 @@
   <si>
     <t>TableName: "Vertical" Package: "table" Vertical: "true"</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Default: "0.5"</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Float</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>float</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -958,17 +970,17 @@
   <sheetPr>
     <tabColor rgb="FFFFFFFF"/>
   </sheetPr>
-  <dimension ref="A1:I5"/>
+  <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="14.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.44140625" customWidth="1"/>
-    <col min="3" max="3" width="8.5546875"/>
+    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.5546875" bestFit="1" customWidth="1"/>
     <col min="5" max="990" width="8.5546875"/>
   </cols>
@@ -1048,6 +1060,17 @@
       </c>
       <c r="E5" t="s">
         <v>39</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B6" t="s">
+        <v>44</v>
+      </c>
+      <c r="C6" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>

--- a/exportorv2/example/Vertical.xlsx
+++ b/exportorv2/example/Vertical.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="49">
   <si>
     <t>ObjectType</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -195,6 +195,22 @@
   </si>
   <si>
     <t>float</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Token</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>repeated int32</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ListSpliter: "|"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1|2|3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -970,10 +986,10 @@
   <sheetPr>
     <tabColor rgb="FFFFFFFF"/>
   </sheetPr>
-  <dimension ref="A1:I6"/>
+  <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1071,6 +1087,20 @@
       </c>
       <c r="C6" t="s">
         <v>42</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>45</v>
+      </c>
+      <c r="B7" t="s">
+        <v>46</v>
+      </c>
+      <c r="C7" t="s">
+        <v>47</v>
+      </c>
+      <c r="E7" t="s">
+        <v>48</v>
       </c>
     </row>
   </sheetData>
